--- a/References/Plan.xlsx
+++ b/References/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Collaboration Standards</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t xml:space="preserve">  to  get respective stats from _wid </t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> object is a projectile that is fired against a target </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  with some dmg value</t>
   </si>
 </sst>
 </file>
@@ -94,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +128,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -148,37 +163,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -223,58 +207,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,311 +615,323 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G20" sqref="G20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="12" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I10"/>
+    <mergeCell ref="A6:I6"/>
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="A11:I13"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="A2:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I10"/>
-    <mergeCell ref="A6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
